--- a/BE/data/dataset_bima_jonas_final_v2.xlsx
+++ b/BE/data/dataset_bima_jonas_final_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Tugas Akhir\ChatBot BIMA\chatbot-v1\BE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E6513-D5A2-456B-A241-7D22ADAEE1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05CD186-4B61-45F0-8D6C-0AA523F41189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13683" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13683" uniqueCount="1699">
   <si>
     <t>Label</t>
   </si>
@@ -5080,9 +5080,6 @@
     <t>Halo! Saya Bima, bot buatan Jonas Atjas untuk membantu mahasiswa Teknik Informatika Universitas Katolik De La Salle Manado.</t>
   </si>
   <si>
-    <t>Saya Bima, Asisten Virtual Pembimbing Mahasiswa Teknik Informatika Universitas Katolik De La Salle Manado yang dibuat oleh Jonas Atjas.</t>
-  </si>
-  <si>
     <t>Silakan ajukan permohonan ke Bagian Keuangan untuk opsi cicilan atau dispensasi.</t>
   </si>
   <si>
@@ -5096,6 +5093,30 @@
   </si>
   <si>
     <t>Silakan ajukan permohonan ke Bagian Keuangan  untuk opsi cicilan atau dispensasi.</t>
+  </si>
+  <si>
+    <t>Berpikir Sesuatu? Tanyakan BIMA siap membantu</t>
+  </si>
+  <si>
+    <t>Chatbot ini dibuat oleh Jonas Atjas, mahasiswa Teknik Informatika angkatan 2019. Dia yang ngembangin chatbot ini biar kamu bisa lebih gampang buat konsultasi dan cari info</t>
+  </si>
+  <si>
+    <t>Hallo, ada yang bisa dibantu?</t>
+  </si>
+  <si>
+    <t>Woi bima</t>
+  </si>
+  <si>
+    <t>SAYA BUKAN PERAMAL YA!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halo! Saya baik-baik saja. </t>
+  </si>
+  <si>
+    <t>Mohon maaf jika informasi yang diberikan kurang jelas</t>
+  </si>
+  <si>
+    <t>kamu capek hari ini? beristirahatlah</t>
   </si>
 </sst>
 </file>
@@ -5460,11 +5481,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4534" workbookViewId="0">
-      <selection activeCell="P4559" sqref="P4559"/>
+    <sheetView tabSelected="1" topLeftCell="B1841" workbookViewId="0">
+      <selection activeCell="C1866" sqref="C1866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.5546875" customWidth="1"/>
+    <col min="3" max="3" width="150.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -5485,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5562,7 +5588,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5573,7 +5599,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5658,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>1694</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6200,7 +6226,7 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6497,7 +6523,7 @@
         <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -6530,7 +6556,7 @@
         <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -6563,7 +6589,7 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -6651,7 +6677,7 @@
         <v>130</v>
       </c>
       <c r="C108" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -7377,7 +7403,7 @@
         <v>47</v>
       </c>
       <c r="C174" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -7410,7 +7436,7 @@
         <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -7443,7 +7469,7 @@
         <v>175</v>
       </c>
       <c r="C180" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -7674,7 +7700,7 @@
         <v>186</v>
       </c>
       <c r="C201" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -25549,7 +25575,7 @@
         <v>82</v>
       </c>
       <c r="C1826" t="s">
-        <v>17</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1827" spans="1:3" x14ac:dyDescent="0.3">
@@ -25560,7 +25586,7 @@
         <v>130</v>
       </c>
       <c r="C1827" t="s">
-        <v>39</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1828" spans="1:3" x14ac:dyDescent="0.3">
@@ -25824,7 +25850,7 @@
         <v>171</v>
       </c>
       <c r="C1851" t="s">
-        <v>27</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1852" spans="1:3" x14ac:dyDescent="0.3">
@@ -25912,7 +25938,7 @@
         <v>35</v>
       </c>
       <c r="C1859" t="s">
-        <v>5</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1860" spans="1:3" x14ac:dyDescent="0.3">
